--- a/documentation/MS3_Testing.xlsx
+++ b/documentation/MS3_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jobroomfield/Desktop/Milestone 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AC0500-EBA0-774B-8582-077189ED62CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C557DE7B-54B7-454F-99CF-D13D7C4DDCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FE313CD3-8A40-1448-A5DF-91EC0D360A9F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19220" xr2:uid="{FE313CD3-8A40-1448-A5DF-91EC0D360A9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="106">
   <si>
     <t>Pass</t>
   </si>
@@ -459,15 +459,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,21 +471,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -512,6 +502,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -968,7 +968,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,24 +980,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1009,31 +1009,31 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1053,7 +1053,10 @@
       <c r="E3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1063,6 +1066,12 @@
         <v>0</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1070,10 +1079,10 @@
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1082,11 +1091,13 @@
       <c r="E4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="7" t="s">
@@ -1095,17 +1106,21 @@
       <c r="J4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1114,11 +1129,13 @@
       <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13" t="s">
+      <c r="F5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -1127,17 +1144,21 @@
       <c r="J5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1146,11 +1167,13 @@
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="7" t="s">
@@ -1159,8 +1182,12 @@
       <c r="J6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1178,10 +1205,12 @@
       <c r="E7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7"/>
+      <c r="F7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" s="7" t="s">
         <v>0</v>
       </c>
@@ -1191,8 +1220,12 @@
       <c r="J7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1210,10 +1243,12 @@
       <c r="E8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7"/>
+      <c r="F8" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="H8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1223,8 +1258,12 @@
       <c r="J8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1242,10 +1281,12 @@
       <c r="E9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7"/>
+      <c r="F9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="7" t="s">
         <v>0</v>
       </c>
@@ -1255,8 +1296,12 @@
       <c r="J9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1274,7 +1319,10 @@
       <c r="E10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -1284,6 +1332,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1357,10 @@
       <c r="E11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -1313,6 +1370,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1332,7 +1395,10 @@
       <c r="E12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -1342,6 +1408,12 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1361,7 +1433,10 @@
       <c r="E13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -1371,6 +1446,12 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1390,7 +1471,10 @@
       <c r="E14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -1400,6 +1484,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1419,7 +1509,10 @@
       <c r="E15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -1429,6 +1522,12 @@
         <v>0</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1547,10 @@
       <c r="E16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -1460,8 +1562,14 @@
       <c r="J16" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -1477,7 +1585,10 @@
       <c r="E17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -1489,8 +1600,14 @@
       <c r="J17" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1506,7 +1623,10 @@
       <c r="E18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -1518,8 +1638,14 @@
       <c r="J18" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1535,7 +1661,10 @@
       <c r="E19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -1547,8 +1676,14 @@
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K19" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1564,7 +1699,10 @@
       <c r="E20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -1576,8 +1714,14 @@
       <c r="J20" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1593,7 +1737,10 @@
       <c r="E21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -1605,8 +1752,14 @@
       <c r="J21" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1775,10 @@
       <c r="E22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -1634,8 +1790,14 @@
       <c r="J22" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="K22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -1651,7 +1813,10 @@
       <c r="E23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -1663,8 +1828,14 @@
       <c r="J23" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1680,7 +1851,10 @@
       <c r="E24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -1692,8 +1866,14 @@
       <c r="J24" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1709,7 +1889,10 @@
       <c r="E25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -1721,8 +1904,14 @@
       <c r="J25" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -1738,7 +1927,10 @@
       <c r="E26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1750,8 +1942,14 @@
       <c r="J26" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -1767,7 +1965,10 @@
       <c r="E27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1779,8 +1980,14 @@
       <c r="J27" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="K27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -1796,7 +2003,10 @@
       <c r="E28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -1808,8 +2018,14 @@
       <c r="J28" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="K28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1825,7 +2041,10 @@
       <c r="E29" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H29" s="7" t="s">
@@ -1837,8 +2056,14 @@
       <c r="J29" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="136" x14ac:dyDescent="0.2">
+      <c r="K29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -1854,7 +2079,10 @@
       <c r="E30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H30" s="7" t="s">
@@ -1866,8 +2094,14 @@
       <c r="J30" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K30" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
@@ -1883,7 +2117,10 @@
       <c r="E31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -1895,8 +2132,14 @@
       <c r="J31" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="K31" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -1909,10 +2152,13 @@
       <c r="D32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -1924,8 +2170,14 @@
       <c r="J32" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K32" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -1938,10 +2190,13 @@
       <c r="D33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -1953,8 +2208,14 @@
       <c r="J33" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>84</v>
       </c>
@@ -1967,10 +2228,13 @@
       <c r="D34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -1982,8 +2246,14 @@
       <c r="J34" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="K34" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>84</v>
       </c>
@@ -1996,10 +2266,13 @@
       <c r="D35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -2011,8 +2284,14 @@
       <c r="J35" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="K35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>84</v>
       </c>
@@ -2025,10 +2304,13 @@
       <c r="D36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
@@ -2040,8 +2322,14 @@
       <c r="J36" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="K36" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2054,10 +2342,13 @@
       <c r="D37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
@@ -2069,8 +2360,14 @@
       <c r="J37" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="K37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
@@ -2083,10 +2380,13 @@
       <c r="D38" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -2098,8 +2398,14 @@
       <c r="J38" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="K38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="119" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>90</v>
       </c>
@@ -2112,10 +2418,13 @@
       <c r="D39" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
@@ -2127,8 +2436,14 @@
       <c r="J39" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -2141,10 +2456,13 @@
       <c r="D40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
@@ -2156,8 +2474,14 @@
       <c r="J40" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
@@ -2170,10 +2494,13 @@
       <c r="D41" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
@@ -2185,8 +2512,14 @@
       <c r="J41" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="K41" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>97</v>
       </c>
@@ -2199,10 +2532,13 @@
       <c r="D42" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
@@ -2212,6 +2548,12 @@
         <v>0</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2221,72 +2563,72 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:L2 D43:L1048576 D32:D42 D3:E6 G3:L3 D10:E31 G10:H42 G4:H6 I4:L42">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+  <conditionalFormatting sqref="D1:L2 D43:L1048576 D32:D42 D3:E6 G3:L3 D10:E31 H10:H42 H4:H6 G4:G42 I4:L42">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H9">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+  <conditionalFormatting sqref="H7:H9">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
